--- a/AutomationTask/marsframework-master/MarsFramework/TestData/LogInData.xlsx
+++ b/AutomationTask/marsframework-master/MarsFramework/TestData/LogInData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\AdvanceTask\AutomationTask\marsframework-master\MarsFramework\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B93D26-4438-4CA6-9A03-14B68B15FC77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAEEB24-B9E1-4AEF-988B-B17BC59FA3AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="80" windowWidth="18940" windowHeight="10120" firstSheet="4" activeTab="9" xr2:uid="{AC3CBE72-DA97-4E18-B194-62C30268D00D}"/>
+    <workbookView xWindow="260" yWindow="80" windowWidth="18940" windowHeight="10120" firstSheet="5" activeTab="10" xr2:uid="{AC3CBE72-DA97-4E18-B194-62C30268D00D}"/>
   </bookViews>
   <sheets>
     <sheet name="SignInPage" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="ChangePassword" sheetId="9" r:id="rId8"/>
     <sheet name="Description" sheetId="8" r:id="rId9"/>
     <sheet name="SearchSkill" sheetId="10" r:id="rId10"/>
+    <sheet name="Filter" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="96">
   <si>
     <t>Password</t>
   </si>
@@ -322,6 +323,15 @@
   </si>
   <si>
     <t>Music &amp; Audio</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>Onsite</t>
+  </si>
+  <si>
+    <t>ShowAll</t>
   </si>
 </sst>
 </file>
@@ -748,7 +758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C60171C-9737-4F49-AE7F-15D06DC11E21}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -784,6 +794,44 @@
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CAD0963-9A38-4B09-9759-3C64F5D1B834}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
+        <v>1154</v>
+      </c>
+      <c r="B2" s="6">
+        <v>310</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1464</v>
       </c>
     </row>
   </sheetData>
